--- a/data/DataBase.xlsx
+++ b/data/DataBase.xlsx
@@ -22,9 +22,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Delete from hs_hr_employee where   1;</t>
-  </si>
-  <si>
     <t>Insert into hs_hr_employee(emp_number,employee_id,emp_lastname,emp_firstname)VALUES(90,'90','test','one');</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>Insert into hs_hr_employee(emp_number,employee_id,emp_lastname,emp_firstname)VALUES(92,'92','test','three');</t>
+  </si>
+  <si>
+    <t>Delete from hs_hr_employee where 1;</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,20 +457,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
